--- a/Analysis/Results_Best_Rounds.xlsx
+++ b/Analysis/Results_Best_Rounds.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\LMU\Bachelor\code\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90A90CD5-40AA-4A63-871F-1F78098EE874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4F6B26-69BF-4245-9CD3-7C5650DAE004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8F83208E-8653-406B-BAC0-37A2A350190E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{8F83208E-8653-406B-BAC0-37A2A350190E}"/>
   </bookViews>
   <sheets>
     <sheet name="1_clean_data" sheetId="1" r:id="rId1"/>
+    <sheet name="1_norm_data" sheetId="2" r:id="rId2"/>
+    <sheet name="2_clean_data" sheetId="3" r:id="rId3"/>
+    <sheet name="2_norm_data" sheetId="4" r:id="rId4"/>
+    <sheet name="7_clean_data" sheetId="5" r:id="rId5"/>
+    <sheet name="7_norm_data" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
   <si>
     <t>../Data</t>
   </si>
@@ -150,6 +155,159 @@
   </si>
   <si>
     <t xml:space="preserve"> success performing test 6.111541867029212e-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Performing Test 1.3122256878318288e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robot Security Robot 1.440874481736876e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> robot Robot performs 0.00014518625567507123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> robot Robot performs 0.00015817596895942722</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moral 0.00040922963425969814</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moral 0.00048288763674435216</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robot Security Robot 9.749664170041168e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robot Security Robot 0.00010794734435479423</t>
+  </si>
+  <si>
+    <t>Performing Test 9.367734939072323e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> performing 0.00019681939016237966</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Performing Test 1.2590175300244808e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> robot perform brain 2.2604253958898667e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> performing test 4.844784647792151e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Security Robot 2.1713868939073643e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robotics Security Robots 0.00032790134639404286</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Security Robot 0.00034734505485433173</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> robot capable human 2.0303309168283473e-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> robot capable human 1.6161725091267947e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> robot perform brain 2.557213243259027e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> robot perform brain 2.994607713774355e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> robot capable human 1.6372934486496598e-06</t>
+  </si>
+  <si>
+    <t>view moral responsibility 1.1220596160443272e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moral fact moral 1.2517513109112122e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fact moral argument 1.5880353949269013e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> people morally responsible 2.1917374175377967e-06</t>
+  </si>
+  <si>
+    <t>view moral responsibility 1.1988188508829256e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moral fact moral 1.5378745348870621e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fact moral argument 1.9764644566521636e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> people morally responsible 2.490721450650663e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> robot security guard 2.2745620303155268e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> robot security guard 2.5842055842069656e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> robot security robot 4.892412340172485e-07</t>
+  </si>
+  <si>
+    <t>success performing test 2.4870773269389705e-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> failed performing test 4.251241549791935e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> performing test 4.850491855710799e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> found performing test 5.192010559474663e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> success performing test 6.354195900145745e-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Performing Test 1.3103509032464632e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robot Security Robot 1.4506832266907057e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Security Robot 2.1783269315103433e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> robot Robot performs 0.00014656670800009948</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> robot Robot performs 0.00015959797749599087</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moral 0.0004074401289225363</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moral 0.00048023748617354777</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robot Security Robot 9.77847444614955e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robot Security Robot 0.00010787201281089064</t>
+  </si>
+  <si>
+    <t>Performing Test 9.287218701543442e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> performing 0.00019618547794372285</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Robotics Security Robots 0.0003284895887688909</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Security Robot 0.00034855080715860925</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Performing Test 1.2545307167052333e-05</t>
   </si>
 </sst>
 </file>
@@ -216,16 +374,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -542,262 +706,1492 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D511D5A1-06FD-4C5E-A132-B36056E90474}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="47.36328125" customWidth="1"/>
+    <col min="6" max="6" width="42.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <f>SUM(B3:B15)</f>
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C3:C15)</f>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B69AB9-1F5F-4F0C-8A75-1A43358EA49A}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="7"/>
+    <col min="5" max="5" width="44.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.90625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="7">
+        <f>SUM(B3:B15)</f>
+        <v>5</v>
+      </c>
+      <c r="C17" s="7">
+        <f>SUM(C3:C15)</f>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818063DB-2291-485E-917D-BB32E9982121}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="47.36328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="42.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.90625" style="3"/>
+    <col min="1" max="1" width="40.90625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="7"/>
+    <col min="5" max="5" width="47.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.90625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="7">
+        <f>SUM(B3:B15)</f>
+        <v>11</v>
+      </c>
+      <c r="C17" s="7">
+        <f>SUM(C3:C15)</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DC9353-D37F-4E53-80EA-9F1EDE3E814D}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="7"/>
+    <col min="5" max="5" width="44.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.90625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="7">
+        <f>SUM(B3:B15)</f>
+        <v>8</v>
+      </c>
+      <c r="C17" s="7">
+        <f>SUM(C3:C15)</f>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8807A320-ECD7-4BE0-8397-DEADBDAC1556}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="7"/>
+    <col min="5" max="5" width="47.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.90625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>30</v>
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>32</v>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>36</v>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="3">
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="7">
         <f>SUM(B3:B15)</f>
-        <v>13</v>
-      </c>
-      <c r="C17" s="3">
+        <v>11</v>
+      </c>
+      <c r="C18" s="7">
         <f>SUM(C3:C15)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BD5A1C-ED6B-43BD-A1E0-4690127F7CE4}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="7"/>
+    <col min="5" max="5" width="44.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.90625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="7">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>